--- a/1999_Denoth_ORIGINAL.xlsx
+++ b/1999_Denoth_ORIGINAL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="113_{AF41A7A7-3211-4316-8999-5FDB3319173D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{01FD191D-D7A2-4152-897F-2D49D679306A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="113_{AF41A7A7-3211-4316-8999-5FDB3319173D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C0072A5C-BCD2-472F-92BD-73A18871BB71}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,16 +64,10 @@
     <t>Carex_lyngbyei</t>
   </si>
   <si>
-    <t>Carex sp2</t>
-  </si>
-  <si>
     <t>Carex_sp1</t>
   </si>
   <si>
     <t>Caltha_palustris</t>
-  </si>
-  <si>
-    <t>Composite (unidentif.)</t>
   </si>
   <si>
     <t>Cirsium_arvense</t>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Galium_sp.</t>
-  </si>
-  <si>
-    <t>Grass (unid.)</t>
   </si>
   <si>
     <t>Hypericum_formosum</t>
@@ -157,9 +148,6 @@
     <t>Platanthera_dilatata</t>
   </si>
   <si>
-    <t>Poa_cf._palustris</t>
-  </si>
-  <si>
     <t>Potentilla_pacifica</t>
   </si>
   <si>
@@ -188,6 +176,18 @@
   </si>
   <si>
     <t>Typha_latifolia</t>
+  </si>
+  <si>
+    <t>Carex_sp2</t>
+  </si>
+  <si>
+    <t>Composite_unidentif.</t>
+  </si>
+  <si>
+    <t>Grass_unid</t>
+  </si>
+  <si>
+    <t>Poa_cf_palustris</t>
   </si>
 </sst>
 </file>
@@ -593,11 +593,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CZ16" sqref="CZ16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2736,7 +2739,7 @@
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -3956,7 +3959,7 @@
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -4261,7 +4264,7 @@
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
@@ -4871,7 +4874,7 @@
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -5176,7 +5179,7 @@
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="10">
         <v>0</v>
@@ -5481,7 +5484,7 @@
     </row>
     <row r="17" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10">
         <v>0</v>
@@ -5786,7 +5789,7 @@
     </row>
     <row r="18" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="10">
         <v>3</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="19" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="10">
         <v>0</v>
@@ -6396,7 +6399,7 @@
     </row>
     <row r="20" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B20" s="10">
         <v>0</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="21" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
@@ -7006,7 +7009,7 @@
     </row>
     <row r="22" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="10">
         <v>2</v>
@@ -7311,7 +7314,7 @@
     </row>
     <row r="23" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" s="10">
         <v>0</v>
@@ -7616,7 +7619,7 @@
     </row>
     <row r="24" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
@@ -7921,7 +7924,7 @@
     </row>
     <row r="25" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" s="10">
         <v>0</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="26" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" s="10">
         <v>0</v>
@@ -8531,7 +8534,7 @@
     </row>
     <row r="27" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="10">
         <v>0</v>
@@ -8836,7 +8839,7 @@
     </row>
     <row r="28" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="10">
         <v>0</v>
@@ -9141,7 +9144,7 @@
     </row>
     <row r="29" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="10">
         <v>0</v>
@@ -9446,7 +9449,7 @@
     </row>
     <row r="30" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="10">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="31" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="10">
         <v>0</v>
@@ -10056,7 +10059,7 @@
     </row>
     <row r="32" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="10">
         <v>0</v>
@@ -10361,7 +10364,7 @@
     </row>
     <row r="33" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" s="10">
         <v>0</v>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="34" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" s="10">
         <v>0</v>
@@ -10971,7 +10974,7 @@
     </row>
     <row r="35" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" s="10">
         <v>0</v>
@@ -11276,7 +11279,7 @@
     </row>
     <row r="36" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" s="10">
         <v>0</v>
@@ -11581,7 +11584,7 @@
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="10">
         <v>0</v>
@@ -11886,7 +11889,7 @@
     </row>
     <row r="38" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" s="10">
         <v>0</v>
@@ -12191,7 +12194,7 @@
     </row>
     <row r="39" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B39" s="10">
         <v>1</v>
@@ -12496,7 +12499,7 @@
     </row>
     <row r="40" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" s="10">
         <v>0</v>
@@ -12801,7 +12804,7 @@
     </row>
     <row r="41" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B41" s="10">
         <v>0</v>
@@ -13106,7 +13109,7 @@
     </row>
     <row r="42" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B42" s="10">
         <v>0</v>
@@ -13411,7 +13414,7 @@
     </row>
     <row r="43" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="10">
         <v>0</v>
@@ -13716,7 +13719,7 @@
     </row>
     <row r="44" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B44" s="10">
         <v>0</v>
@@ -14021,7 +14024,7 @@
     </row>
     <row r="45" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B45" s="10">
         <v>0</v>
@@ -14326,7 +14329,7 @@
     </row>
     <row r="46" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B46" s="10">
         <v>0</v>
@@ -14631,7 +14634,7 @@
     </row>
     <row r="47" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B47" s="10">
         <v>0</v>
@@ -14936,7 +14939,7 @@
     </row>
     <row r="48" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" s="10">
         <v>0</v>
@@ -15241,7 +15244,7 @@
     </row>
     <row r="49" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B49" s="10">
         <v>0</v>
